--- a/Schedule.xlsx
+++ b/Schedule.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\conno\Desktop\UoB_Project\cxb1114\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{6F934C2D-5A67-4DC9-A3A1-9E7117D9096C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{412343B4-54BC-4A5C-AA1A-743ECF704E1D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="25180" windowHeight="16140" xr2:uid="{79494119-A09D-4E46-880F-F5E34B2719AF}"/>
+    <workbookView xWindow="-25070" yWindow="-40" windowWidth="25180" windowHeight="16140" xr2:uid="{79494119-A09D-4E46-880F-F5E34B2719AF}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="131" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="129" uniqueCount="21">
   <si>
     <t>Date</t>
   </si>
@@ -89,22 +89,16 @@
     <t>Phil</t>
   </si>
   <si>
-    <t>Deadline to 'figure shit out'</t>
-  </si>
-  <si>
     <t>Deadline for complete app; Write-up Period</t>
   </si>
   <si>
     <t>Deadline for modelling; begin app integration</t>
   </si>
   <si>
-    <t>2.5 days</t>
-  </si>
-  <si>
-    <t>4 days</t>
-  </si>
-  <si>
     <t>5.5 days</t>
+  </si>
+  <si>
+    <t>Total</t>
   </si>
 </sst>
 </file>
@@ -183,42 +177,19 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1"/>
     <xf numFmtId="14" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="28">
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="4" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <strike/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC00000"/>
-        </patternFill>
-      </fill>
-    </dxf>
+  <dxfs count="7">
     <dxf>
       <font>
         <color rgb="FF9C0006"/>
@@ -226,6 +197,19 @@
       <fill>
         <patternFill>
           <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <color theme="2"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="9"/>
         </patternFill>
       </fill>
     </dxf>
@@ -263,12 +247,10 @@
       <font>
         <b/>
         <i val="0"/>
-        <strike val="0"/>
-        <color theme="2"/>
       </font>
       <fill>
         <patternFill>
-          <bgColor theme="9"/>
+          <bgColor theme="4" tint="0.59996337778862885"/>
         </patternFill>
       </fill>
     </dxf>
@@ -279,223 +261,6 @@
       <fill>
         <patternFill>
           <bgColor rgb="FFC00000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="4" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C5700"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFEB9C"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <strike val="0"/>
-        <color theme="2"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="9"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="4" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C5700"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFEB9C"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <strike val="0"/>
-        <color theme="2"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="9"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C5700"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFEB9C"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <strike val="0"/>
-        <color theme="2"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="9"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <strike val="0"/>
-        <color theme="2"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="9"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <strike val="0"/>
-        <color theme="2"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="9"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
         </patternFill>
       </fill>
     </dxf>
@@ -832,13 +597,14 @@
   <dimension ref="B3:S63"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="O50" sqref="O50"/>
+      <selection activeCell="U27" sqref="U27"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="18.5" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultColWidth="8.7265625" defaultRowHeight="18.5" x14ac:dyDescent="0.45"/>
   <cols>
     <col min="1" max="1" width="8.7265625" style="1"/>
-    <col min="4" max="4" width="12.81640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="3" width="9.1796875"/>
+    <col min="4" max="4" width="14.81640625" style="1" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="8.7265625" style="1"/>
     <col min="6" max="6" width="14" style="1" bestFit="1" customWidth="1"/>
     <col min="7" max="16384" width="8.7265625" style="1"/>
@@ -849,19 +615,21 @@
       <c r="C3" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="D3" s="6" t="s">
+      <c r="D3" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="E3" s="7"/>
-      <c r="F3" s="6" t="s">
+      <c r="F3" s="3" t="s">
         <v>1</v>
+      </c>
+      <c r="N3" s="2" t="s">
+        <v>20</v>
       </c>
       <c r="O3" s="2" t="s">
         <v>12</v>
       </c>
       <c r="S3" s="1">
-        <f>COUNTIF(F6:F63, "Uni")</f>
-        <v>22</v>
+        <f ca="1">COUNTIF(INDIRECT("F" &amp; ROW(D6) + MATCH(TODAY(), D6:D63, 0) - 1 &amp; ":F63"), "Uni")</f>
+        <v>13</v>
       </c>
     </row>
     <row r="4" spans="2:19" x14ac:dyDescent="0.45">
@@ -872,8 +640,8 @@
         <v>14</v>
       </c>
       <c r="S5" s="1">
-        <f>COUNTIF(F6:F63, "Work")</f>
-        <v>24</v>
+        <f ca="1">COUNTIF(INDIRECT("F" &amp; ROW(D6) + MATCH(TODAY(), D6:D63, 0) - 1 &amp; ":F63"), "Work")</f>
+        <v>15</v>
       </c>
     </row>
     <row r="6" spans="2:19" x14ac:dyDescent="0.45">
@@ -913,12 +681,6 @@
       <c r="G8" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="I8" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="M8" s="1" t="s">
-        <v>20</v>
-      </c>
     </row>
     <row r="9" spans="2:19" x14ac:dyDescent="0.45">
       <c r="C9" t="s">
@@ -974,6 +736,7 @@
       <c r="F13" s="1" t="s">
         <v>10</v>
       </c>
+      <c r="O13" s="2"/>
     </row>
     <row r="14" spans="2:19" x14ac:dyDescent="0.45">
       <c r="C14" t="s">
@@ -1008,7 +771,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="17" spans="3:13" x14ac:dyDescent="0.45">
+    <row r="17" spans="3:7" x14ac:dyDescent="0.45">
       <c r="C17" t="s">
         <v>7</v>
       </c>
@@ -1019,7 +782,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="18" spans="3:13" x14ac:dyDescent="0.45">
+    <row r="18" spans="3:7" x14ac:dyDescent="0.45">
       <c r="C18" t="s">
         <v>8</v>
       </c>
@@ -1030,7 +793,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="19" spans="3:13" x14ac:dyDescent="0.45">
+    <row r="19" spans="3:7" x14ac:dyDescent="0.45">
       <c r="C19" t="s">
         <v>9</v>
       </c>
@@ -1041,7 +804,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="20" spans="3:13" x14ac:dyDescent="0.45">
+    <row r="20" spans="3:7" x14ac:dyDescent="0.45">
       <c r="C20" t="s">
         <v>3</v>
       </c>
@@ -1052,7 +815,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="21" spans="3:13" x14ac:dyDescent="0.45">
+    <row r="21" spans="3:7" x14ac:dyDescent="0.45">
       <c r="C21" t="s">
         <v>4</v>
       </c>
@@ -1063,7 +826,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="22" spans="3:13" x14ac:dyDescent="0.45">
+    <row r="22" spans="3:7" x14ac:dyDescent="0.45">
       <c r="C22" t="s">
         <v>5</v>
       </c>
@@ -1076,11 +839,8 @@
       <c r="G22" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="M22" s="1" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="23" spans="3:13" x14ac:dyDescent="0.45">
+    </row>
+    <row r="23" spans="3:7" x14ac:dyDescent="0.45">
       <c r="C23" t="s">
         <v>6</v>
       </c>
@@ -1091,7 +851,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="24" spans="3:13" x14ac:dyDescent="0.45">
+    <row r="24" spans="3:7" x14ac:dyDescent="0.45">
       <c r="C24" t="s">
         <v>7</v>
       </c>
@@ -1102,7 +862,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="25" spans="3:13" x14ac:dyDescent="0.45">
+    <row r="25" spans="3:7" x14ac:dyDescent="0.45">
       <c r="C25" t="s">
         <v>8</v>
       </c>
@@ -1113,7 +873,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="26" spans="3:13" x14ac:dyDescent="0.45">
+    <row r="26" spans="3:7" x14ac:dyDescent="0.45">
       <c r="C26" t="s">
         <v>9</v>
       </c>
@@ -1124,7 +884,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="27" spans="3:13" x14ac:dyDescent="0.45">
+    <row r="27" spans="3:7" x14ac:dyDescent="0.45">
       <c r="C27" t="s">
         <v>3</v>
       </c>
@@ -1135,7 +895,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="28" spans="3:13" x14ac:dyDescent="0.45">
+    <row r="28" spans="3:7" x14ac:dyDescent="0.45">
       <c r="C28" t="s">
         <v>4</v>
       </c>
@@ -1146,7 +906,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="29" spans="3:13" x14ac:dyDescent="0.45">
+    <row r="29" spans="3:7" x14ac:dyDescent="0.45">
       <c r="C29" t="s">
         <v>5</v>
       </c>
@@ -1157,7 +917,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="30" spans="3:13" x14ac:dyDescent="0.45">
+    <row r="30" spans="3:7" x14ac:dyDescent="0.45">
       <c r="C30" t="s">
         <v>6</v>
       </c>
@@ -1168,7 +928,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="31" spans="3:13" x14ac:dyDescent="0.45">
+    <row r="31" spans="3:7" x14ac:dyDescent="0.45">
       <c r="C31" t="s">
         <v>7</v>
       </c>
@@ -1179,7 +939,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="32" spans="3:13" x14ac:dyDescent="0.45">
+    <row r="32" spans="3:7" x14ac:dyDescent="0.45">
       <c r="C32" t="s">
         <v>8</v>
       </c>
@@ -1222,6 +982,9 @@
       <c r="F35" s="1" t="s">
         <v>10</v>
       </c>
+      <c r="G35" s="1" t="s">
+        <v>16</v>
+      </c>
     </row>
     <row r="36" spans="3:15" x14ac:dyDescent="0.45">
       <c r="C36" t="s">
@@ -1233,14 +996,11 @@
       <c r="F36" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="G36" s="1" t="s">
-        <v>16</v>
-      </c>
       <c r="I36" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="O36" s="1" t="s">
         <v>19</v>
-      </c>
-      <c r="O36" s="1" t="s">
-        <v>22</v>
       </c>
     </row>
     <row r="37" spans="3:15" x14ac:dyDescent="0.45">
@@ -1400,7 +1160,7 @@
         <v>16</v>
       </c>
       <c r="I50" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="51" spans="3:9" x14ac:dyDescent="0.45">
@@ -1542,41 +1302,42 @@
       <c r="D63" s="5">
         <v>45901</v>
       </c>
-      <c r="F63" s="8" t="s">
+      <c r="F63" s="6" t="s">
         <v>15</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="4" type="noConversion"/>
+  <conditionalFormatting sqref="D6:D63">
+    <cfRule type="expression" dxfId="6" priority="1">
+      <formula>A2&gt;TODAY()</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="5" priority="2">
+      <formula>D6=TODAY()</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F1:F1048576">
+    <cfRule type="cellIs" dxfId="4" priority="3" operator="equal">
+      <formula>"Holiday"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="3" priority="5" operator="equal">
+      <formula>"Work"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="2" priority="6" operator="equal">
+      <formula>"Work"</formula>
+    </cfRule>
+  </conditionalFormatting>
   <conditionalFormatting sqref="F6:F63">
-    <cfRule type="cellIs" dxfId="6" priority="7" operator="equal">
+    <cfRule type="cellIs" dxfId="1" priority="7" operator="equal">
       <formula>"Uni"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F1:F1048576">
-    <cfRule type="cellIs" dxfId="5" priority="3" operator="equal">
-      <formula>"Holiday"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="4" priority="5" operator="equal">
-      <formula>"Work"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="3" priority="6" operator="equal">
-      <formula>"Work"</formula>
-    </cfRule>
-  </conditionalFormatting>
   <conditionalFormatting sqref="J56">
-    <cfRule type="cellIs" dxfId="2" priority="4" operator="equal">
+    <cfRule type="cellIs" dxfId="0" priority="4" operator="equal">
       <formula>"Holiday"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D6:D63">
-    <cfRule type="expression" dxfId="1" priority="1">
-      <formula>A2&gt;TODAY()</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="0" priority="2">
-      <formula>D6=TODAY()</formula>
-    </cfRule>
-  </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/Schedule.xlsx
+++ b/Schedule.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\conno\Desktop\UoB_Project\cxb1114\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{412343B4-54BC-4A5C-AA1A-743ECF704E1D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0E09BEE8-93FF-40A8-8390-88D7D7CBC020}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-25070" yWindow="-40" windowWidth="25180" windowHeight="16140" xr2:uid="{79494119-A09D-4E46-880F-F5E34B2719AF}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{79494119-A09D-4E46-880F-F5E34B2719AF}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -596,21 +596,21 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6E8B1598-6195-4DC7-819A-914306573496}">
   <dimension ref="B3:S63"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="U27" sqref="U27"/>
+    <sheetView tabSelected="1" topLeftCell="A18" workbookViewId="0">
+      <selection activeCell="S29" sqref="S29"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.7265625" defaultRowHeight="18.5" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="18.75" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="8.7265625" style="1"/>
-    <col min="2" max="3" width="9.1796875"/>
-    <col min="4" max="4" width="14.81640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="8.7265625" style="1"/>
+    <col min="1" max="1" width="8.7109375" style="1"/>
+    <col min="2" max="3" width="9.140625"/>
+    <col min="4" max="4" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="8.7109375" style="1"/>
     <col min="6" max="6" width="14" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="16384" width="8.7265625" style="1"/>
+    <col min="7" max="16384" width="8.7109375" style="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="2:19" ht="23.5" x14ac:dyDescent="0.55000000000000004">
+    <row r="3" spans="2:19" ht="24" x14ac:dyDescent="0.4">
       <c r="B3" s="1"/>
       <c r="C3" s="3" t="s">
         <v>2</v>
@@ -629,22 +629,22 @@
       </c>
       <c r="S3" s="1">
         <f ca="1">COUNTIF(INDIRECT("F" &amp; ROW(D6) + MATCH(TODAY(), D6:D63, 0) - 1 &amp; ":F63"), "Uni")</f>
-        <v>13</v>
-      </c>
-    </row>
-    <row r="4" spans="2:19" x14ac:dyDescent="0.45">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="4" spans="2:19" x14ac:dyDescent="0.3">
       <c r="D4" s="4"/>
     </row>
-    <row r="5" spans="2:19" x14ac:dyDescent="0.45">
+    <row r="5" spans="2:19" x14ac:dyDescent="0.3">
       <c r="O5" s="2" t="s">
         <v>14</v>
       </c>
       <c r="S5" s="1">
         <f ca="1">COUNTIF(INDIRECT("F" &amp; ROW(D6) + MATCH(TODAY(), D6:D63, 0) - 1 &amp; ":F63"), "Work")</f>
-        <v>15</v>
-      </c>
-    </row>
-    <row r="6" spans="2:19" x14ac:dyDescent="0.45">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="6" spans="2:19" x14ac:dyDescent="0.3">
       <c r="C6" t="s">
         <v>3</v>
       </c>
@@ -655,7 +655,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="7" spans="2:19" x14ac:dyDescent="0.45">
+    <row r="7" spans="2:19" x14ac:dyDescent="0.3">
       <c r="B7" s="1"/>
       <c r="C7" t="s">
         <v>4</v>
@@ -668,7 +668,7 @@
       </c>
       <c r="O7" s="2"/>
     </row>
-    <row r="8" spans="2:19" x14ac:dyDescent="0.45">
+    <row r="8" spans="2:19" x14ac:dyDescent="0.3">
       <c r="C8" t="s">
         <v>5</v>
       </c>
@@ -682,7 +682,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="9" spans="2:19" x14ac:dyDescent="0.45">
+    <row r="9" spans="2:19" x14ac:dyDescent="0.3">
       <c r="C9" t="s">
         <v>6</v>
       </c>
@@ -693,7 +693,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="10" spans="2:19" x14ac:dyDescent="0.45">
+    <row r="10" spans="2:19" x14ac:dyDescent="0.3">
       <c r="C10" t="s">
         <v>7</v>
       </c>
@@ -704,7 +704,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="11" spans="2:19" x14ac:dyDescent="0.45">
+    <row r="11" spans="2:19" x14ac:dyDescent="0.3">
       <c r="C11" t="s">
         <v>8</v>
       </c>
@@ -715,7 +715,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="12" spans="2:19" x14ac:dyDescent="0.45">
+    <row r="12" spans="2:19" x14ac:dyDescent="0.3">
       <c r="C12" t="s">
         <v>9</v>
       </c>
@@ -726,7 +726,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="13" spans="2:19" x14ac:dyDescent="0.45">
+    <row r="13" spans="2:19" x14ac:dyDescent="0.3">
       <c r="C13" t="s">
         <v>3</v>
       </c>
@@ -738,7 +738,7 @@
       </c>
       <c r="O13" s="2"/>
     </row>
-    <row r="14" spans="2:19" x14ac:dyDescent="0.45">
+    <row r="14" spans="2:19" x14ac:dyDescent="0.3">
       <c r="C14" t="s">
         <v>4</v>
       </c>
@@ -749,7 +749,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="15" spans="2:19" x14ac:dyDescent="0.45">
+    <row r="15" spans="2:19" x14ac:dyDescent="0.3">
       <c r="C15" t="s">
         <v>5</v>
       </c>
@@ -760,7 +760,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="16" spans="2:19" x14ac:dyDescent="0.45">
+    <row r="16" spans="2:19" x14ac:dyDescent="0.3">
       <c r="C16" t="s">
         <v>6</v>
       </c>
@@ -771,7 +771,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="17" spans="3:7" x14ac:dyDescent="0.45">
+    <row r="17" spans="3:7" x14ac:dyDescent="0.3">
       <c r="C17" t="s">
         <v>7</v>
       </c>
@@ -782,7 +782,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="18" spans="3:7" x14ac:dyDescent="0.45">
+    <row r="18" spans="3:7" x14ac:dyDescent="0.3">
       <c r="C18" t="s">
         <v>8</v>
       </c>
@@ -793,7 +793,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="19" spans="3:7" x14ac:dyDescent="0.45">
+    <row r="19" spans="3:7" x14ac:dyDescent="0.3">
       <c r="C19" t="s">
         <v>9</v>
       </c>
@@ -804,7 +804,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="20" spans="3:7" x14ac:dyDescent="0.45">
+    <row r="20" spans="3:7" x14ac:dyDescent="0.3">
       <c r="C20" t="s">
         <v>3</v>
       </c>
@@ -815,7 +815,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="21" spans="3:7" x14ac:dyDescent="0.45">
+    <row r="21" spans="3:7" x14ac:dyDescent="0.3">
       <c r="C21" t="s">
         <v>4</v>
       </c>
@@ -826,7 +826,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="22" spans="3:7" x14ac:dyDescent="0.45">
+    <row r="22" spans="3:7" x14ac:dyDescent="0.3">
       <c r="C22" t="s">
         <v>5</v>
       </c>
@@ -840,7 +840,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="23" spans="3:7" x14ac:dyDescent="0.45">
+    <row r="23" spans="3:7" x14ac:dyDescent="0.3">
       <c r="C23" t="s">
         <v>6</v>
       </c>
@@ -851,7 +851,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="24" spans="3:7" x14ac:dyDescent="0.45">
+    <row r="24" spans="3:7" x14ac:dyDescent="0.3">
       <c r="C24" t="s">
         <v>7</v>
       </c>
@@ -862,7 +862,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="25" spans="3:7" x14ac:dyDescent="0.45">
+    <row r="25" spans="3:7" x14ac:dyDescent="0.3">
       <c r="C25" t="s">
         <v>8</v>
       </c>
@@ -873,7 +873,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="26" spans="3:7" x14ac:dyDescent="0.45">
+    <row r="26" spans="3:7" x14ac:dyDescent="0.3">
       <c r="C26" t="s">
         <v>9</v>
       </c>
@@ -884,7 +884,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="27" spans="3:7" x14ac:dyDescent="0.45">
+    <row r="27" spans="3:7" x14ac:dyDescent="0.3">
       <c r="C27" t="s">
         <v>3</v>
       </c>
@@ -895,7 +895,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="28" spans="3:7" x14ac:dyDescent="0.45">
+    <row r="28" spans="3:7" x14ac:dyDescent="0.3">
       <c r="C28" t="s">
         <v>4</v>
       </c>
@@ -906,7 +906,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="29" spans="3:7" x14ac:dyDescent="0.45">
+    <row r="29" spans="3:7" x14ac:dyDescent="0.3">
       <c r="C29" t="s">
         <v>5</v>
       </c>
@@ -917,7 +917,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="30" spans="3:7" x14ac:dyDescent="0.45">
+    <row r="30" spans="3:7" x14ac:dyDescent="0.3">
       <c r="C30" t="s">
         <v>6</v>
       </c>
@@ -928,7 +928,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="31" spans="3:7" x14ac:dyDescent="0.45">
+    <row r="31" spans="3:7" x14ac:dyDescent="0.3">
       <c r="C31" t="s">
         <v>7</v>
       </c>
@@ -939,7 +939,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="32" spans="3:7" x14ac:dyDescent="0.45">
+    <row r="32" spans="3:7" x14ac:dyDescent="0.3">
       <c r="C32" t="s">
         <v>8</v>
       </c>
@@ -950,7 +950,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="33" spans="3:15" x14ac:dyDescent="0.45">
+    <row r="33" spans="3:15" x14ac:dyDescent="0.3">
       <c r="C33" t="s">
         <v>9</v>
       </c>
@@ -961,7 +961,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="34" spans="3:15" x14ac:dyDescent="0.45">
+    <row r="34" spans="3:15" x14ac:dyDescent="0.3">
       <c r="C34" t="s">
         <v>3</v>
       </c>
@@ -972,7 +972,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="35" spans="3:15" x14ac:dyDescent="0.45">
+    <row r="35" spans="3:15" x14ac:dyDescent="0.3">
       <c r="C35" t="s">
         <v>4</v>
       </c>
@@ -986,7 +986,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="36" spans="3:15" x14ac:dyDescent="0.45">
+    <row r="36" spans="3:15" x14ac:dyDescent="0.3">
       <c r="C36" t="s">
         <v>5</v>
       </c>
@@ -1003,7 +1003,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="37" spans="3:15" x14ac:dyDescent="0.45">
+    <row r="37" spans="3:15" x14ac:dyDescent="0.3">
       <c r="C37" t="s">
         <v>6</v>
       </c>
@@ -1014,7 +1014,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="38" spans="3:15" x14ac:dyDescent="0.45">
+    <row r="38" spans="3:15" x14ac:dyDescent="0.3">
       <c r="C38" t="s">
         <v>7</v>
       </c>
@@ -1025,7 +1025,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="39" spans="3:15" x14ac:dyDescent="0.45">
+    <row r="39" spans="3:15" x14ac:dyDescent="0.3">
       <c r="C39" t="s">
         <v>8</v>
       </c>
@@ -1036,7 +1036,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="40" spans="3:15" x14ac:dyDescent="0.45">
+    <row r="40" spans="3:15" x14ac:dyDescent="0.3">
       <c r="C40" t="s">
         <v>9</v>
       </c>
@@ -1047,7 +1047,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="41" spans="3:15" x14ac:dyDescent="0.45">
+    <row r="41" spans="3:15" x14ac:dyDescent="0.3">
       <c r="C41" t="s">
         <v>3</v>
       </c>
@@ -1058,7 +1058,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="42" spans="3:15" x14ac:dyDescent="0.45">
+    <row r="42" spans="3:15" x14ac:dyDescent="0.3">
       <c r="C42" t="s">
         <v>4</v>
       </c>
@@ -1069,7 +1069,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="43" spans="3:15" x14ac:dyDescent="0.45">
+    <row r="43" spans="3:15" x14ac:dyDescent="0.3">
       <c r="C43" t="s">
         <v>5</v>
       </c>
@@ -1080,7 +1080,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="44" spans="3:15" x14ac:dyDescent="0.45">
+    <row r="44" spans="3:15" x14ac:dyDescent="0.3">
       <c r="C44" t="s">
         <v>6</v>
       </c>
@@ -1091,7 +1091,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="45" spans="3:15" x14ac:dyDescent="0.45">
+    <row r="45" spans="3:15" x14ac:dyDescent="0.3">
       <c r="C45" t="s">
         <v>7</v>
       </c>
@@ -1102,7 +1102,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="46" spans="3:15" x14ac:dyDescent="0.45">
+    <row r="46" spans="3:15" x14ac:dyDescent="0.3">
       <c r="C46" t="s">
         <v>8</v>
       </c>
@@ -1113,7 +1113,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="47" spans="3:15" x14ac:dyDescent="0.45">
+    <row r="47" spans="3:15" x14ac:dyDescent="0.3">
       <c r="C47" t="s">
         <v>9</v>
       </c>
@@ -1124,7 +1124,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="48" spans="3:15" x14ac:dyDescent="0.45">
+    <row r="48" spans="3:15" x14ac:dyDescent="0.3">
       <c r="C48" t="s">
         <v>3</v>
       </c>
@@ -1135,7 +1135,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="49" spans="3:9" x14ac:dyDescent="0.45">
+    <row r="49" spans="3:9" x14ac:dyDescent="0.3">
       <c r="C49" t="s">
         <v>4</v>
       </c>
@@ -1146,7 +1146,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="50" spans="3:9" x14ac:dyDescent="0.45">
+    <row r="50" spans="3:9" x14ac:dyDescent="0.3">
       <c r="C50" t="s">
         <v>5</v>
       </c>
@@ -1163,7 +1163,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="51" spans="3:9" x14ac:dyDescent="0.45">
+    <row r="51" spans="3:9" x14ac:dyDescent="0.3">
       <c r="C51" t="s">
         <v>6</v>
       </c>
@@ -1174,7 +1174,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="52" spans="3:9" x14ac:dyDescent="0.45">
+    <row r="52" spans="3:9" x14ac:dyDescent="0.3">
       <c r="C52" t="s">
         <v>7</v>
       </c>
@@ -1185,7 +1185,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="53" spans="3:9" x14ac:dyDescent="0.45">
+    <row r="53" spans="3:9" x14ac:dyDescent="0.3">
       <c r="C53" t="s">
         <v>8</v>
       </c>
@@ -1196,7 +1196,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="54" spans="3:9" x14ac:dyDescent="0.45">
+    <row r="54" spans="3:9" x14ac:dyDescent="0.3">
       <c r="C54" t="s">
         <v>9</v>
       </c>
@@ -1207,7 +1207,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="55" spans="3:9" x14ac:dyDescent="0.45">
+    <row r="55" spans="3:9" x14ac:dyDescent="0.3">
       <c r="C55" t="s">
         <v>3</v>
       </c>
@@ -1218,7 +1218,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="56" spans="3:9" x14ac:dyDescent="0.45">
+    <row r="56" spans="3:9" x14ac:dyDescent="0.3">
       <c r="C56" t="s">
         <v>4</v>
       </c>
@@ -1229,7 +1229,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="57" spans="3:9" x14ac:dyDescent="0.45">
+    <row r="57" spans="3:9" x14ac:dyDescent="0.3">
       <c r="C57" t="s">
         <v>5</v>
       </c>
@@ -1240,7 +1240,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="58" spans="3:9" x14ac:dyDescent="0.45">
+    <row r="58" spans="3:9" x14ac:dyDescent="0.3">
       <c r="C58" t="s">
         <v>6</v>
       </c>
@@ -1251,7 +1251,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="59" spans="3:9" x14ac:dyDescent="0.45">
+    <row r="59" spans="3:9" x14ac:dyDescent="0.3">
       <c r="C59" t="s">
         <v>7</v>
       </c>
@@ -1262,7 +1262,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="60" spans="3:9" x14ac:dyDescent="0.45">
+    <row r="60" spans="3:9" x14ac:dyDescent="0.3">
       <c r="C60" t="s">
         <v>8</v>
       </c>
@@ -1273,7 +1273,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="61" spans="3:9" x14ac:dyDescent="0.45">
+    <row r="61" spans="3:9" x14ac:dyDescent="0.3">
       <c r="C61" t="s">
         <v>9</v>
       </c>
@@ -1284,7 +1284,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="62" spans="3:9" x14ac:dyDescent="0.45">
+    <row r="62" spans="3:9" x14ac:dyDescent="0.3">
       <c r="C62" t="s">
         <v>3</v>
       </c>
@@ -1295,7 +1295,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="63" spans="3:9" x14ac:dyDescent="0.45">
+    <row r="63" spans="3:9" x14ac:dyDescent="0.3">
       <c r="C63" t="s">
         <v>4</v>
       </c>
